--- a/CE01ISSM/Omaha_Cal_Info_CE01ISSM_00002.xlsx
+++ b/CE01ISSM/Omaha_Cal_Info_CE01ISSM_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CE01ISSM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="759"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="759" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,12 @@
     <sheet name="ACS182_CC_tcarray" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="183">
   <si>
     <t>Ref Des</t>
   </si>
@@ -248,9 +253,6 @@
   </si>
   <si>
     <t>CE01ISSM-RID16-02-FLORTD000</t>
-  </si>
-  <si>
-    <t>CE01ISSM-SBD17-03-CTDBPC000</t>
   </si>
   <si>
     <t>50011</t>
@@ -861,6 +863,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -908,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -943,7 +948,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1154,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,10 +1236,10 @@
         <v>42157</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>182</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>183</v>
       </c>
       <c r="I2" s="11">
         <v>25</v>
@@ -1256,18 +1261,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK221"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="17"/>
     <col min="2" max="2" width="19.7109375" style="17"/>
-    <col min="3" max="3" width="17.42578125" style="17"/>
-    <col min="4" max="4" width="20.28515625" style="17"/>
-    <col min="5" max="5" width="36.140625" style="17"/>
-    <col min="6" max="6" width="28.7109375" style="17"/>
+    <col min="3" max="3" width="6.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.140625" style="17"/>
     <col min="8" max="1025" width="8.85546875" style="17"/>
   </cols>
@@ -8542,7 +8547,6 @@
       <c r="F9" s="17">
         <v>-124.095583333333</v>
       </c>
-      <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -9568,7 +9572,6 @@
       <c r="D10"/>
       <c r="E10" s="20"/>
       <c r="F10"/>
-      <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -10606,7 +10609,6 @@
       <c r="F11" s="17">
         <v>17533</v>
       </c>
-      <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -11644,7 +11646,6 @@
       <c r="F12" s="17">
         <v>101</v>
       </c>
-      <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -12682,7 +12683,6 @@
       <c r="F13" s="17">
         <v>2229</v>
       </c>
-      <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -13720,7 +13720,6 @@
       <c r="F14" s="17">
         <v>38502</v>
       </c>
-      <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -14758,7 +14757,6 @@
       <c r="F15" s="21">
         <v>0</v>
       </c>
-      <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -15796,7 +15794,6 @@
       <c r="F16" s="21">
         <v>1</v>
       </c>
-      <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -16832,9 +16829,6 @@
         <v>34</v>
       </c>
       <c r="F17" s="17">
-        <v>35</v>
-      </c>
-      <c r="G17" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H17"/>
@@ -17862,7 +17856,6 @@
       <c r="D18"/>
       <c r="E18" s="20"/>
       <c r="F18"/>
-      <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -18900,7 +18893,6 @@
       <c r="F19" s="17">
         <v>17533</v>
       </c>
-      <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -19938,7 +19930,6 @@
       <c r="F20" s="17">
         <v>101</v>
       </c>
-      <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -20976,7 +20967,6 @@
       <c r="F21" s="17">
         <v>2229</v>
       </c>
-      <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -22014,7 +22004,6 @@
       <c r="F22" s="17">
         <v>38502</v>
       </c>
-      <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -23052,7 +23041,6 @@
       <c r="F23" s="21">
         <v>0</v>
       </c>
-      <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -24090,7 +24078,6 @@
       <c r="F24" s="21">
         <v>1</v>
       </c>
-      <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -25126,9 +25113,6 @@
         <v>34</v>
       </c>
       <c r="F25" s="17">
-        <v>35</v>
-      </c>
-      <c r="G25" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H25"/>
@@ -26156,7 +26140,6 @@
       <c r="D26"/>
       <c r="E26" s="20"/>
       <c r="F26"/>
-      <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -27194,7 +27177,6 @@
       <c r="F27" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -28232,7 +28214,6 @@
       <c r="F28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -29270,8 +29251,6 @@
       <c r="F29" s="17">
         <v>20.3</v>
       </c>
-      <c r="G29"/>
-      <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -30308,8 +30287,6 @@
       <c r="F30" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G30"/>
-      <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -31347,7 +31324,6 @@
         <v>48</v>
       </c>
       <c r="G31"/>
-      <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -32385,7 +32361,6 @@
         <v>50</v>
       </c>
       <c r="G32"/>
-      <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -33423,7 +33398,6 @@
         <v>52</v>
       </c>
       <c r="G33"/>
-      <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -34637,6 +34611,7 @@
         <v>63</v>
       </c>
       <c r="G43"/>
+      <c r="H43"/>
     </row>
     <row r="44" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A44"/>
@@ -34648,224 +34623,224 @@
       <c r="G44"/>
     </row>
     <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="G45" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="H45" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="17">
+      <c r="I45" s="17">
         <v>2</v>
       </c>
-      <c r="D45" s="17">
+      <c r="J45" s="17">
         <v>1154</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="K45" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="17">
+      <c r="L45" s="17">
         <v>47</v>
       </c>
-      <c r="G45"/>
+      <c r="M45"/>
     </row>
     <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="G46" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="H46" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="17">
+      <c r="I46" s="17">
         <v>2</v>
       </c>
-      <c r="D46" s="17">
+      <c r="J46" s="17">
         <v>1154</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="K46" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="17">
+      <c r="L46" s="17">
         <v>1.832E-6</v>
       </c>
-      <c r="G46"/>
+      <c r="M46"/>
     </row>
     <row r="47" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="G47" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="H47" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="17">
+      <c r="I47" s="17">
         <v>2</v>
       </c>
-      <c r="D47" s="17">
+      <c r="J47" s="17">
         <v>1154</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="K47" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="17">
+      <c r="L47" s="17">
         <v>45</v>
       </c>
-      <c r="G47"/>
+      <c r="M47"/>
     </row>
     <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="G48" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="H48" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="17">
+      <c r="I48" s="17">
         <v>2</v>
       </c>
-      <c r="D48" s="17">
+      <c r="J48" s="17">
         <v>1154</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="K48" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="17">
+      <c r="L48" s="17">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="G48"/>
+      <c r="M48"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G49" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="H49" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="17">
+      <c r="I49" s="17">
         <v>2</v>
       </c>
-      <c r="D49" s="17">
+      <c r="J49" s="17">
         <v>1154</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="K49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="17">
+      <c r="L49" s="17">
         <v>44</v>
       </c>
-      <c r="G49"/>
+      <c r="M49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G50" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="H50" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="17">
+      <c r="I50" s="17">
         <v>2</v>
       </c>
-      <c r="D50" s="17">
+      <c r="J50" s="17">
         <v>1154</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="K50" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="17">
+      <c r="L50" s="17">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="G50"/>
+      <c r="M50"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G51" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="H51" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="17">
+      <c r="I51" s="17">
         <v>2</v>
       </c>
-      <c r="D51" s="17">
+      <c r="J51" s="17">
         <v>1154</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="K51" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="17">
+      <c r="L51" s="17">
         <v>117</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="M51" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G52" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="H52" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="17">
+      <c r="I52" s="17">
         <v>2</v>
       </c>
-      <c r="D52" s="17">
+      <c r="J52" s="17">
         <v>1154</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="K52" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="17">
+      <c r="L52" s="17">
         <v>700</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="M52" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G53" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="H53" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="17">
+      <c r="I53" s="17">
         <v>2</v>
       </c>
-      <c r="D53" s="17">
+      <c r="J53" s="17">
         <v>1154</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="K53" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F53" s="17">
+      <c r="L53" s="17">
         <v>1.08</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="M53" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G54" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="H54" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="17">
+      <c r="I54" s="17">
         <v>2</v>
       </c>
-      <c r="D54" s="17">
+      <c r="J54" s="17">
         <v>1154</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="K54" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F54" s="17">
+      <c r="L54" s="17">
         <v>3.9E-2</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="M54" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -34874,7 +34849,7 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>75</v>
       </c>
@@ -34895,7 +34870,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>75</v>
       </c>
@@ -34916,7 +34891,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>75</v>
       </c>
@@ -34937,7 +34912,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>75</v>
       </c>
@@ -34958,7 +34933,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>75</v>
       </c>
@@ -34979,7 +34954,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>75</v>
       </c>
@@ -35000,7 +34975,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>75</v>
       </c>
@@ -35023,7 +34998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>75</v>
       </c>
@@ -35046,7 +35021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>75</v>
       </c>
@@ -35069,7 +35044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>75</v>
       </c>
@@ -35092,7 +35067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -35101,511 +35076,487 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G67" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="17">
+        <v>2</v>
+      </c>
+      <c r="J67" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="K67" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="20">
+        <v>44.658383333333298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G68" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="17">
+      <c r="I68" s="17">
         <v>2</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="J68" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="20">
+        <v>-124.095583333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G69" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="20">
-        <v>44.658383333333298</v>
-      </c>
-      <c r="G67"/>
+      <c r="H69" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="17">
+        <v>2</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K69" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L69" s="17">
+        <v>1.276456E-3</v>
+      </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G70" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="17">
+        <v>2</v>
+      </c>
+      <c r="J70" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="K70" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L70" s="17">
+        <v>2.6903810000000002E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="17">
+      <c r="I71" s="17">
         <v>2</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="J71" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L71" s="17">
+        <v>-5.591639E-7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G72" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="20">
-        <v>-124.095583333333</v>
-      </c>
-      <c r="G68"/>
+      <c r="H72" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="17">
+        <v>2</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L72" s="17">
+        <v>1.577658E-7</v>
+      </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="17" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G73" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="17">
+      <c r="I73" s="17">
         <v>2</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="J73" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K73" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="L73" s="17">
+        <v>-58.854516699999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G74" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E69" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F69" s="17">
-        <v>1.276456E-3</v>
-      </c>
-      <c r="G69"/>
+      <c r="H74" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="17">
+        <v>2</v>
+      </c>
+      <c r="J74" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K74" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L74" s="17">
+        <v>54.255826800000001</v>
+      </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="17" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G75" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="17">
+      <c r="I75" s="17">
         <v>2</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="J75" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K75" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L75" s="17">
+        <v>-0.55724122799999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G76" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E70" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F70" s="17">
-        <v>2.6903810000000002E-4</v>
-      </c>
-      <c r="G70"/>
+      <c r="H76" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="17">
+        <v>2</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K76" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L76" s="17">
+        <v>524431.27800000005</v>
+      </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="17" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G77" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H77" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="17">
+      <c r="I77" s="17">
         <v>2</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="J77" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K77" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L77" s="17">
+        <v>-21.887732100000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G78" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E71" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="17">
-        <v>-5.591639E-7</v>
-      </c>
-      <c r="G71"/>
+      <c r="H78" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="17">
+        <v>2</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K78" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L78" s="17">
+        <v>0.31120579700000001</v>
+      </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="17" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G79" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="17">
+      <c r="I79" s="17">
         <v>2</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="J79" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K79" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L79" s="17">
+        <v>25.026250000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G80" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E72" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F72" s="17">
-        <v>1.577658E-7</v>
-      </c>
-      <c r="G72"/>
+      <c r="H80" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="17">
+        <v>2</v>
+      </c>
+      <c r="J80" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K80" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L80" s="17">
+        <v>-3.5E-4</v>
+      </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="17" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G81" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H81" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="17">
+      <c r="I81" s="17">
         <v>2</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="J81" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K81" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L81" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G82" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E73" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F73" s="17">
-        <v>-58.854516699999998</v>
-      </c>
-      <c r="G73"/>
+      <c r="H82" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="17">
+        <v>2</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K82" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L82" s="17">
+        <v>-0.159678125</v>
+      </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="17" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G83" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="17">
+      <c r="I83" s="17">
         <v>2</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="J83" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K83" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L83" s="17">
+        <v>4.8865805100000001E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G84" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F74" s="17">
-        <v>54.255826800000001</v>
-      </c>
-      <c r="G74"/>
+      <c r="H84" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="17">
+        <v>2</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K84" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="L84" s="17">
+        <v>-5.8760541700000003E-12</v>
+      </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="17" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G85" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="17">
+      <c r="I85" s="17">
         <v>2</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="J85" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K85" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L85" s="17">
+        <v>-0.97195659999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G86" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F75" s="17">
-        <v>-0.55724122799999998</v>
-      </c>
-      <c r="G75"/>
+      <c r="H86" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="17">
+        <v>2</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L86" s="17">
+        <v>0.13858780000000001</v>
+      </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="17" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G87" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H87" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="17">
+      <c r="I87" s="17">
         <v>2</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="J87" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K87" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="L87" s="17">
+        <v>-2.7013310000000002E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G88" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E76" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F76" s="17">
-        <v>524431.27800000005</v>
-      </c>
-      <c r="G76"/>
+      <c r="H88" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="17">
+        <v>2</v>
+      </c>
+      <c r="J88" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K88" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L88" s="17">
+        <v>3.8801909999999999E-5</v>
+      </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="17" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G89" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H89" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="17">
+      <c r="I89" s="17">
         <v>2</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="J89" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K89" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L89" s="17">
+        <v>-9.5700000000000003E-8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G90" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E77" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" s="17">
-        <v>-21.887732100000001</v>
-      </c>
-      <c r="G77"/>
+      <c r="H90" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="17">
+        <v>2</v>
+      </c>
+      <c r="J90" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L90" s="17">
+        <v>3.2499999999999998E-6</v>
+      </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="17">
-        <v>2</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="17">
-        <v>0.31120579700000001</v>
-      </c>
-      <c r="G78"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="17">
-        <v>2</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F79" s="17">
-        <v>25.026250000000001</v>
-      </c>
-      <c r="G79"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="17">
-        <v>2</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="17">
-        <v>-3.5E-4</v>
-      </c>
-      <c r="G80"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="17">
-        <v>2</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="17">
-        <v>0</v>
-      </c>
-      <c r="G81"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="17">
-        <v>2</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82" s="17">
-        <v>-0.159678125</v>
-      </c>
-      <c r="G82"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="17">
-        <v>2</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F83" s="17">
-        <v>4.8865805100000001E-4</v>
-      </c>
-      <c r="G83"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="17">
-        <v>2</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F84" s="17">
-        <v>-5.8760541700000003E-12</v>
-      </c>
-      <c r="G84"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="17">
-        <v>2</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F85" s="17">
-        <v>-0.97195659999999995</v>
-      </c>
-      <c r="G85"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="17">
-        <v>2</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F86" s="17">
-        <v>0.13858780000000001</v>
-      </c>
-      <c r="G86"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="17">
-        <v>2</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F87" s="17">
-        <v>-2.7013310000000002E-4</v>
-      </c>
-      <c r="G87"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="17">
-        <v>2</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F88" s="17">
-        <v>3.8801909999999999E-5</v>
-      </c>
-      <c r="G88"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="17">
-        <v>2</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F89" s="17">
-        <v>-9.5700000000000003E-8</v>
-      </c>
-      <c r="G89"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="17">
-        <v>2</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F90" s="17">
-        <v>3.2499999999999998E-6</v>
-      </c>
-      <c r="G90"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -35614,9 +35565,9 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>12</v>
@@ -35625,7 +35576,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>22</v>
@@ -35635,9 +35586,9 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>12</v>
@@ -35646,7 +35597,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>23</v>
@@ -35656,9 +35607,9 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>12</v>
@@ -35667,19 +35618,20 @@
         <v>2</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E94" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F94" s="17">
         <v>1.2472819999999999E-3</v>
       </c>
       <c r="G94"/>
+      <c r="H94"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>12</v>
@@ -35688,19 +35640,20 @@
         <v>2</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F95" s="17">
         <v>2.7513169999999999E-4</v>
       </c>
       <c r="G95"/>
+      <c r="H95"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>12</v>
@@ -35709,10 +35662,10 @@
         <v>2</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F96" s="17">
         <v>-1.164927E-6</v>
@@ -35721,7 +35674,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>12</v>
@@ -35730,10 +35683,10 @@
         <v>2</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F97" s="17">
         <v>1.828527E-7</v>
@@ -35742,7 +35695,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>12</v>
@@ -35751,10 +35704,10 @@
         <v>2</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E98" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F98" s="17">
         <v>-60.958993499999998</v>
@@ -35763,7 +35716,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>12</v>
@@ -35772,10 +35725,10 @@
         <v>2</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F99" s="17">
         <v>54.631500299999999</v>
@@ -35784,7 +35737,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B100" s="17" t="s">
         <v>12</v>
@@ -35793,10 +35746,10 @@
         <v>2</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E100" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F100" s="17">
         <v>-0.80724953099999996</v>
@@ -35805,7 +35758,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>12</v>
@@ -35814,10 +35767,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F101" s="17">
         <v>524737.08900000004</v>
@@ -35826,7 +35779,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>12</v>
@@ -35835,10 +35788,10 @@
         <v>2</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F102" s="17">
         <v>17.629218300000002</v>
@@ -35847,7 +35800,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>12</v>
@@ -35856,10 +35809,10 @@
         <v>2</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F103" s="17">
         <v>-0.43791688400000001</v>
@@ -35868,7 +35821,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B104" s="17" t="s">
         <v>12</v>
@@ -35877,10 +35830,10 @@
         <v>2</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F104" s="17">
         <v>25.067125000000001</v>
@@ -35889,7 +35842,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>12</v>
@@ -35898,10 +35851,10 @@
         <v>2</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F105" s="17">
         <v>2.5000000000000001E-5</v>
@@ -35910,7 +35863,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>12</v>
@@ -35919,10 +35872,10 @@
         <v>2</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F106" s="17">
         <v>0</v>
@@ -35931,7 +35884,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>12</v>
@@ -35940,10 +35893,10 @@
         <v>2</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F107" s="17">
         <v>8.5999905299999999E-2</v>
@@ -35952,7 +35905,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>12</v>
@@ -35961,10 +35914,10 @@
         <v>2</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F108" s="17">
         <v>4.8842670400000004E-4</v>
@@ -35973,7 +35926,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>12</v>
@@ -35982,10 +35935,10 @@
         <v>2</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F109" s="17">
         <v>-6.8426125900000003E-12</v>
@@ -35994,7 +35947,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>12</v>
@@ -36003,10 +35956,10 @@
         <v>2</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F110" s="17">
         <v>-0.99330379999999996</v>
@@ -36015,7 +35968,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>12</v>
@@ -36024,10 +35977,10 @@
         <v>2</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F111" s="17">
         <v>0.13849600000000001</v>
@@ -36036,7 +35989,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>12</v>
@@ -36045,19 +35998,19 @@
         <v>2</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E112" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F112" s="17">
         <v>-2.270537E-4</v>
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B113" s="17" t="s">
         <v>12</v>
@@ -36066,19 +36019,19 @@
         <v>2</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F113" s="17">
         <v>3.540078E-5</v>
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B114" s="17" t="s">
         <v>12</v>
@@ -36087,19 +36040,19 @@
         <v>2</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F114" s="17">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B115" s="17" t="s">
         <v>12</v>
@@ -36108,17 +36061,17 @@
         <v>2</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F115" s="17">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -36127,9 +36080,9 @@
       <c r="F116"/>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>12</v>
@@ -36138,7 +36091,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>22</v>
@@ -36148,9 +36101,9 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="17" t="s">
         <v>12</v>
@@ -36159,7 +36112,7 @@
         <v>2</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>23</v>
@@ -36169,9 +36122,9 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B119" s="17" t="s">
         <v>12</v>
@@ -36180,19 +36133,19 @@
         <v>2</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F119" s="17">
         <v>1.2589159999999999E-3</v>
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" s="17" t="s">
         <v>12</v>
@@ -36201,19 +36154,19 @@
         <v>2</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F120" s="17">
         <v>2.7384590000000003E-4</v>
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" s="17" t="s">
         <v>12</v>
@@ -36222,19 +36175,19 @@
         <v>2</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F121" s="17">
         <v>-1.1230929999999999E-6</v>
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B122" s="17" t="s">
         <v>12</v>
@@ -36243,19 +36196,19 @@
         <v>2</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F122" s="17">
         <v>1.8295270000000001E-7</v>
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B123" s="17" t="s">
         <v>12</v>
@@ -36264,19 +36217,19 @@
         <v>2</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E123" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F123" s="17">
         <v>-58.694972800000002</v>
       </c>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" s="17" t="s">
         <v>12</v>
@@ -36285,19 +36238,19 @@
         <v>2</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E124" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F124" s="17">
         <v>54.6728393</v>
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" s="17" t="s">
         <v>12</v>
@@ -36306,19 +36259,19 @@
         <v>2</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F125" s="17">
         <v>-0.63763615600000001</v>
       </c>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B126" s="17" t="s">
         <v>12</v>
@@ -36327,19 +36280,19 @@
         <v>2</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E126" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F126" s="17">
         <v>524643.36600000004</v>
       </c>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B127" s="17" t="s">
         <v>12</v>
@@ -36348,19 +36301,19 @@
         <v>2</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F127" s="17">
         <v>24.075237300000001</v>
       </c>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B128" s="17" t="s">
         <v>12</v>
@@ -36369,19 +36322,20 @@
         <v>2</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E128" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F128" s="17">
         <v>-0.59340453599999998</v>
       </c>
       <c r="G128"/>
+      <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>12</v>
@@ -36390,19 +36344,19 @@
         <v>2</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E129" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F129" s="17">
         <v>25.027625</v>
       </c>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B130" s="17" t="s">
         <v>12</v>
@@ -36411,19 +36365,20 @@
         <v>2</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E130" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F130" s="17">
         <v>-6.7500000000000004E-4</v>
       </c>
       <c r="G130"/>
+      <c r="H130"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B131" s="17" t="s">
         <v>12</v>
@@ -36432,19 +36387,19 @@
         <v>2</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F131" s="17">
         <v>0</v>
       </c>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B132" s="17" t="s">
         <v>12</v>
@@ -36453,19 +36408,19 @@
         <v>2</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F132" s="17">
         <v>0.120444996</v>
       </c>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B133" s="17" t="s">
         <v>12</v>
@@ -36474,19 +36429,19 @@
         <v>2</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F133" s="17">
         <v>4.8852986300000005E-4</v>
       </c>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B134" s="17" t="s">
         <v>12</v>
@@ -36495,19 +36450,19 @@
         <v>2</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E134" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F134" s="17">
         <v>-6.5795214600000003E-12</v>
       </c>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B135" s="17" t="s">
         <v>12</v>
@@ -36516,19 +36471,19 @@
         <v>2</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E135" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F135" s="17">
         <v>-0.98972729999999998</v>
       </c>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B136" s="17" t="s">
         <v>12</v>
@@ -36537,19 +36492,19 @@
         <v>2</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E136" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F136" s="17">
         <v>0.13866529999999999</v>
       </c>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B137" s="17" t="s">
         <v>12</v>
@@ -36558,19 +36513,19 @@
         <v>2</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F137" s="17">
         <v>-2.0333689999999999E-4</v>
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B138" s="17" t="s">
         <v>12</v>
@@ -36579,19 +36534,19 @@
         <v>2</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F138" s="17">
         <v>3.3990309999999999E-5</v>
       </c>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B139" s="17" t="s">
         <v>12</v>
@@ -36600,19 +36555,19 @@
         <v>2</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F139" s="17">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B140" s="17" t="s">
         <v>12</v>
@@ -36621,17 +36576,17 @@
         <v>2</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F140" s="17">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -36640,9 +36595,9 @@
       <c r="F141"/>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B142" s="17" t="s">
         <v>12</v>
@@ -36661,9 +36616,9 @@
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>12</v>
@@ -36682,9 +36637,9 @@
       </c>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>12</v>
@@ -36696,10 +36651,10 @@
         <v>219</v>
       </c>
       <c r="E144" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F144" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="F144" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="G144"/>
     </row>
@@ -36714,7 +36669,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B146" s="17" t="s">
         <v>12</v>
@@ -36735,7 +36690,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B147" s="17" t="s">
         <v>12</v>
@@ -36756,7 +36711,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>12</v>
@@ -36768,10 +36723,10 @@
         <v>311</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F148" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G148"/>
     </row>
@@ -36786,7 +36741,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>12</v>
@@ -36798,7 +36753,7 @@
         <v>254</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F150" s="17">
         <v>217</v>
@@ -36809,7 +36764,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B151" s="17" t="s">
         <v>12</v>
@@ -36821,7 +36776,7 @@
         <v>254</v>
       </c>
       <c r="E151" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F151" s="17">
         <v>240</v>
@@ -36832,7 +36787,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>12</v>
@@ -36844,7 +36799,7 @@
         <v>254</v>
       </c>
       <c r="E152" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F152" s="17">
         <v>19.987358835277099</v>
@@ -36853,7 +36808,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>12</v>
@@ -36865,16 +36820,16 @@
         <v>254</v>
       </c>
       <c r="E153" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F153" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="F153" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="G153"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B154" s="17" t="s">
         <v>12</v>
@@ -36886,16 +36841,16 @@
         <v>254</v>
       </c>
       <c r="E154" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F154" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="F154" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="G154"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>12</v>
@@ -36907,16 +36862,16 @@
         <v>254</v>
       </c>
       <c r="E155" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F155" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="F155" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="G155"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B156" s="17" t="s">
         <v>12</v>
@@ -36928,10 +36883,10 @@
         <v>254</v>
       </c>
       <c r="E156" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F156" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="F156" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="G156"/>
     </row>
@@ -36946,7 +36901,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B158" s="17" t="s">
         <v>12</v>
@@ -36955,19 +36910,19 @@
         <v>2</v>
       </c>
       <c r="D158" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E158" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="E158" s="20" t="s">
+      <c r="F158" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="F158" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="G158"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B159" s="17" t="s">
         <v>12</v>
@@ -36976,19 +36931,19 @@
         <v>2</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E159" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F159" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="F159" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="G159"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B160" s="17" t="s">
         <v>12</v>
@@ -36997,13 +36952,13 @@
         <v>2</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E160" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F160" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="F160" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="G160"/>
     </row>
@@ -37018,7 +36973,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B162" s="17" t="s">
         <v>12</v>
@@ -37030,7 +36985,7 @@
         <v>21517</v>
       </c>
       <c r="E162" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F162" s="17">
         <v>25000</v>
@@ -37039,7 +36994,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B163" s="17" t="s">
         <v>12</v>
@@ -37060,7 +37015,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B164" s="17" t="s">
         <v>12</v>
@@ -37081,7 +37036,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B165" s="17" t="s">
         <v>12</v>
@@ -37093,7 +37048,7 @@
         <v>21517</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F165" s="17">
         <v>0.45</v>
@@ -37102,7 +37057,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B166" s="17" t="s">
         <v>12</v>
@@ -37114,7 +37069,7 @@
         <v>21517</v>
       </c>
       <c r="E166" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F166" s="17">
         <v>0.45</v>
@@ -37123,7 +37078,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B167" s="17" t="s">
         <v>12</v>
@@ -37135,7 +37090,7 @@
         <v>21517</v>
       </c>
       <c r="E167" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F167" s="17">
         <v>0.45</v>
@@ -37144,7 +37099,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B168" s="17" t="s">
         <v>12</v>
@@ -37156,7 +37111,7 @@
         <v>21517</v>
       </c>
       <c r="E168" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F168" s="17">
         <v>0.45</v>
@@ -37174,7 +37129,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B170" s="17" t="s">
         <v>12</v>
@@ -37195,7 +37150,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B171" s="17" t="s">
         <v>12</v>
@@ -37225,7 +37180,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B173" s="17" t="s">
         <v>12</v>
@@ -37234,10 +37189,10 @@
         <v>2</v>
       </c>
       <c r="D173" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E173" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="E173" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="F173" s="17">
         <v>601.76969999999994</v>
@@ -37246,7 +37201,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B174" s="17" t="s">
         <v>12</v>
@@ -37255,10 +37210,10 @@
         <v>2</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E174" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F174" s="17">
         <v>4.9606469999999998</v>
@@ -37267,7 +37222,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B175" s="17" t="s">
         <v>12</v>
@@ -37276,10 +37231,10 @@
         <v>2</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E175" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F175" s="17">
         <v>-1135.396</v>
@@ -37288,7 +37243,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B176" s="17" t="s">
         <v>12</v>
@@ -37297,19 +37252,19 @@
         <v>2</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E176" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F176" s="17">
         <v>2.6914E-2</v>
       </c>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B177" s="17" t="s">
         <v>12</v>
@@ -37318,19 +37273,19 @@
         <v>2</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E177" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F177" s="17">
         <v>0</v>
       </c>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B178" s="17" t="s">
         <v>12</v>
@@ -37339,10 +37294,10 @@
         <v>2</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E178" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F178" s="17">
         <v>0</v>
@@ -37351,9 +37306,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B179" s="17" t="s">
         <v>12</v>
@@ -37362,19 +37317,19 @@
         <v>2</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E179" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F179" s="17">
         <v>0</v>
       </c>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B180" s="17" t="s">
         <v>12</v>
@@ -37383,10 +37338,10 @@
         <v>2</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E180" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F180" s="17">
         <v>1</v>
@@ -37395,9 +37350,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B181" s="17" t="s">
         <v>12</v>
@@ -37406,19 +37361,19 @@
         <v>2</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E181" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F181" s="17">
         <v>27.81081</v>
       </c>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B182" s="17" t="s">
         <v>12</v>
@@ -37427,19 +37382,19 @@
         <v>2</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E182" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F182" s="17">
         <v>0.55913900000000005</v>
       </c>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B183" s="17" t="s">
         <v>12</v>
@@ -37448,19 +37403,19 @@
         <v>2</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E183" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F183" s="17">
         <v>19.907679999999999</v>
       </c>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B184" s="17" t="s">
         <v>12</v>
@@ -37469,19 +37424,20 @@
         <v>2</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E184" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F184" s="17">
         <v>35.665750000000003</v>
       </c>
       <c r="G184"/>
+      <c r="H184"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B185" s="17" t="s">
         <v>12</v>
@@ -37490,19 +37446,20 @@
         <v>2</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E185" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F185" s="17">
         <v>5.7847879999999998</v>
       </c>
       <c r="G185"/>
+      <c r="H185"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B186" s="17" t="s">
         <v>12</v>
@@ -37511,19 +37468,20 @@
         <v>2</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E186" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F186" s="17">
         <v>-3942.6729999999998</v>
       </c>
       <c r="G186"/>
+      <c r="H186"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B187" s="17" t="s">
         <v>12</v>
@@ -37532,19 +37490,20 @@
         <v>2</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E187" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F187" s="17">
         <v>-11520.64</v>
       </c>
       <c r="G187"/>
+      <c r="H187"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B188" s="17" t="s">
         <v>12</v>
@@ -37553,19 +37512,19 @@
         <v>2</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E188" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F188" s="17">
         <v>0</v>
       </c>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B189" s="17" t="s">
         <v>12</v>
@@ -37574,19 +37533,19 @@
         <v>2</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E189" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F189" s="17">
         <v>8388.6</v>
       </c>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B190" s="17" t="s">
         <v>12</v>
@@ -37595,17 +37554,17 @@
         <v>2</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E190" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F190" s="17">
         <v>125829.1</v>
       </c>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -37614,9 +37573,9 @@
       <c r="F191"/>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B192" s="17" t="s">
         <v>12</v>
@@ -37625,19 +37584,19 @@
         <v>2</v>
       </c>
       <c r="D192" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E192" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="E192" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="F192" s="17">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B193" s="17" t="s">
         <v>12</v>
@@ -37646,19 +37605,19 @@
         <v>2</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E193" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F193" s="17">
         <v>0.76880000000000004</v>
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B194" s="17" t="s">
         <v>12</v>
@@ -37667,19 +37626,19 @@
         <v>2</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E194" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F194" s="17">
         <v>-1.6688000000000001</v>
       </c>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B195" s="17" t="s">
         <v>12</v>
@@ -37688,19 +37647,19 @@
         <v>2</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E195" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F195" s="17">
         <v>15.7</v>
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B196" s="17" t="s">
         <v>12</v>
@@ -37709,7 +37668,7 @@
         <v>2</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E196" s="20" t="s">
         <v>28</v>
@@ -37719,9 +37678,9 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B197" s="17" t="s">
         <v>12</v>
@@ -37730,19 +37689,19 @@
         <v>2</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E197" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F197" s="17">
         <v>34</v>
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B198" s="17" t="s">
         <v>12</v>
@@ -37751,7 +37710,7 @@
         <v>2</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E198" s="20" t="s">
         <v>30</v>
@@ -37761,9 +37720,9 @@
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B199" s="17" t="s">
         <v>12</v>
@@ -37772,17 +37731,17 @@
         <v>2</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E199" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F199" s="17">
         <v>44327</v>
       </c>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -37791,9 +37750,9 @@
       <c r="F200"/>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B201" s="17" t="s">
         <v>12</v>
@@ -37802,19 +37761,19 @@
         <v>2</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E201" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F201" s="17">
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B202" s="17" t="s">
         <v>12</v>
@@ -37823,19 +37782,19 @@
         <v>2</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E202" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F202" s="17">
         <v>0.73519999999999996</v>
       </c>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B203" s="17" t="s">
         <v>12</v>
@@ -37844,19 +37803,20 @@
         <v>2</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E203" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F203" s="17">
         <v>-1.5599000000000001</v>
       </c>
       <c r="G203"/>
+      <c r="H203"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B204" s="17" t="s">
         <v>12</v>
@@ -37865,19 +37825,20 @@
         <v>2</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E204" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F204" s="17">
         <v>14.6</v>
       </c>
       <c r="G204"/>
+      <c r="H204"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B205" s="17" t="s">
         <v>12</v>
@@ -37886,7 +37847,7 @@
         <v>2</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E205" s="20" t="s">
         <v>28</v>
@@ -37895,10 +37856,11 @@
         <v>19706</v>
       </c>
       <c r="G205"/>
+      <c r="H205"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B206" s="17" t="s">
         <v>12</v>
@@ -37907,19 +37869,20 @@
         <v>2</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E206" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F206" s="17">
         <v>34</v>
       </c>
       <c r="G206"/>
+      <c r="H206"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B207" s="17" t="s">
         <v>12</v>
@@ -37928,7 +37891,7 @@
         <v>2</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E207" s="20" t="s">
         <v>30</v>
@@ -37937,10 +37900,11 @@
         <v>3073</v>
       </c>
       <c r="G207"/>
+      <c r="H207"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B208" s="17" t="s">
         <v>12</v>
@@ -37949,10 +37913,10 @@
         <v>2</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E208" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F208" s="17">
         <v>44327</v>
@@ -37974,7 +37938,7 @@
       <c r="D210"/>
       <c r="E210" s="20"/>
       <c r="G210" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -37992,7 +37956,7 @@
       <c r="D212"/>
       <c r="E212" s="20"/>
       <c r="G212" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -38005,7 +37969,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B214" s="17" t="s">
         <v>12</v>
@@ -38014,7 +37978,7 @@
         <v>2</v>
       </c>
       <c r="D214" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E214" s="20"/>
       <c r="G214" s="17" t="s">
@@ -38023,7 +37987,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B215" s="17" t="s">
         <v>12</v>
@@ -38032,7 +37996,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E215" s="20"/>
       <c r="G215" s="17" t="s">
@@ -38041,7 +38005,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B216" s="17" t="s">
         <v>12</v>
@@ -38050,7 +38014,7 @@
         <v>2</v>
       </c>
       <c r="D216" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E216" s="20"/>
       <c r="G216" s="17" t="s">
@@ -38067,7 +38031,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B218" s="17" t="s">
         <v>12</v>
@@ -38076,7 +38040,7 @@
         <v>2</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E218" s="20"/>
       <c r="G218" s="17" t="s">
@@ -38085,7 +38049,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B219" s="17" t="s">
         <v>12</v>
@@ -38094,7 +38058,7 @@
         <v>2</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E219" s="20"/>
       <c r="G219" s="17" t="s">
@@ -38103,7 +38067,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B220" s="17" t="s">
         <v>12</v>
@@ -38112,7 +38076,7 @@
         <v>2</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G220" s="17" t="s">
         <v>19</v>
@@ -38120,7 +38084,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B221" s="17" t="s">
         <v>12</v>
@@ -38129,7 +38093,7 @@
         <v>2</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G221" s="17" t="s">
         <v>19</v>
